--- a/13/1/3/Operaciones no financieras 1990 a 2021 - Trimestral.xlsx
+++ b/13/1/3/Operaciones no financieras 1990 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Serie</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3603,10 +3606,10 @@
         <v>64</v>
       </c>
       <c r="B41">
-        <v>2168377</v>
+        <v>2169902</v>
       </c>
       <c r="C41">
-        <v>971991</v>
+        <v>971223</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3615,31 +3618,31 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>813026</v>
+        <v>815372</v>
       </c>
       <c r="G41">
-        <v>8151</v>
+        <v>8149</v>
       </c>
       <c r="H41">
         <v>274152</v>
       </c>
       <c r="I41">
-        <v>101057</v>
+        <v>101006</v>
       </c>
       <c r="J41">
-        <v>1789795</v>
+        <v>1789742</v>
       </c>
       <c r="K41">
-        <v>1070530</v>
+        <v>1070606</v>
       </c>
       <c r="L41">
-        <v>413610</v>
+        <v>413519</v>
       </c>
       <c r="M41">
         <v>325</v>
       </c>
       <c r="N41">
-        <v>261412</v>
+        <v>261374</v>
       </c>
       <c r="O41">
         <v>28331</v>
@@ -3648,28 +3651,28 @@
         <v>15587</v>
       </c>
       <c r="Q41">
-        <v>378582</v>
+        <v>380161</v>
       </c>
       <c r="R41">
-        <v>100093</v>
+        <v>100110</v>
       </c>
       <c r="S41">
         <v>7666</v>
       </c>
       <c r="T41">
-        <v>103831</v>
+        <v>103848</v>
       </c>
       <c r="U41">
         <v>3928</v>
       </c>
       <c r="W41">
-        <v>2176042</v>
+        <v>2177568</v>
       </c>
       <c r="X41">
-        <v>1897554</v>
+        <v>1897517</v>
       </c>
       <c r="Y41">
-        <v>278489</v>
+        <v>280050</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -3677,10 +3680,10 @@
         <v>65</v>
       </c>
       <c r="B42">
-        <v>1875658</v>
+        <v>1875813</v>
       </c>
       <c r="C42">
-        <v>661062</v>
+        <v>661212</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3689,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>762246</v>
+        <v>762332</v>
       </c>
       <c r="G42">
         <v>6449</v>
@@ -3698,52 +3701,52 @@
         <v>369948</v>
       </c>
       <c r="I42">
-        <v>75954</v>
+        <v>75872</v>
       </c>
       <c r="J42">
-        <v>1835763</v>
+        <v>1835746</v>
       </c>
       <c r="K42">
-        <v>1102995</v>
+        <v>1103012</v>
       </c>
       <c r="L42">
-        <v>441715</v>
+        <v>441599</v>
       </c>
       <c r="M42">
         <v>411</v>
       </c>
       <c r="N42">
-        <v>269276</v>
+        <v>269368</v>
       </c>
       <c r="O42">
         <v>11262</v>
       </c>
       <c r="P42">
-        <v>10105</v>
+        <v>10094</v>
       </c>
       <c r="Q42">
-        <v>39895</v>
+        <v>40067</v>
       </c>
       <c r="R42">
-        <v>106959</v>
+        <v>106969</v>
       </c>
       <c r="S42">
         <v>305</v>
       </c>
       <c r="T42">
-        <v>104467</v>
+        <v>104476</v>
       </c>
       <c r="U42">
         <v>2797</v>
       </c>
       <c r="W42">
-        <v>1875963</v>
+        <v>1876118</v>
       </c>
       <c r="X42">
-        <v>1943027</v>
+        <v>1943020</v>
       </c>
       <c r="Y42">
-        <v>-67064</v>
+        <v>-66902</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -3751,10 +3754,10 @@
         <v>66</v>
       </c>
       <c r="B43">
-        <v>2052495</v>
+        <v>2052091</v>
       </c>
       <c r="C43">
-        <v>912997</v>
+        <v>912736</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3763,40 +3766,40 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>746190</v>
+        <v>745986</v>
       </c>
       <c r="G43">
-        <v>6657</v>
+        <v>6656</v>
       </c>
       <c r="H43">
         <v>288497</v>
       </c>
       <c r="I43">
-        <v>98154</v>
+        <v>98217</v>
       </c>
       <c r="J43">
-        <v>1795518</v>
+        <v>1795664</v>
       </c>
       <c r="K43">
-        <v>1109537</v>
+        <v>1109490</v>
       </c>
       <c r="L43">
-        <v>433364</v>
+        <v>433335</v>
       </c>
       <c r="M43">
         <v>258</v>
       </c>
       <c r="N43">
-        <v>229045</v>
+        <v>229302</v>
       </c>
       <c r="O43">
         <v>10559</v>
       </c>
       <c r="P43">
-        <v>12755</v>
+        <v>12719</v>
       </c>
       <c r="Q43">
-        <v>256976</v>
+        <v>256428</v>
       </c>
       <c r="R43">
         <v>101586</v>
@@ -3811,13 +3814,13 @@
         <v>6799</v>
       </c>
       <c r="W43">
-        <v>2055072</v>
+        <v>2054669</v>
       </c>
       <c r="X43">
-        <v>1899682</v>
+        <v>1899827</v>
       </c>
       <c r="Y43">
-        <v>155390</v>
+        <v>154842</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -3825,10 +3828,10 @@
         <v>67</v>
       </c>
       <c r="B44">
-        <v>2145049</v>
+        <v>2147093</v>
       </c>
       <c r="C44">
-        <v>848090</v>
+        <v>849517</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3837,64 +3840,64 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>827556</v>
+        <v>827462</v>
       </c>
       <c r="G44">
         <v>7560</v>
       </c>
       <c r="H44">
-        <v>336310</v>
+        <v>336853</v>
       </c>
       <c r="I44">
-        <v>125532</v>
+        <v>125700</v>
       </c>
       <c r="J44">
-        <v>1998267</v>
+        <v>1996637</v>
       </c>
       <c r="K44">
-        <v>1183143</v>
+        <v>1182728</v>
       </c>
       <c r="L44">
-        <v>522240</v>
+        <v>520871</v>
       </c>
       <c r="M44">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="N44">
-        <v>256177</v>
+        <v>256151</v>
       </c>
       <c r="O44">
-        <v>18376</v>
+        <v>18568</v>
       </c>
       <c r="P44">
-        <v>17933</v>
+        <v>17928</v>
       </c>
       <c r="Q44">
-        <v>146783</v>
+        <v>150456</v>
       </c>
       <c r="R44">
-        <v>150672</v>
+        <v>150938</v>
       </c>
       <c r="S44">
         <v>2624</v>
       </c>
       <c r="T44">
-        <v>148911</v>
+        <v>149190</v>
       </c>
       <c r="U44">
-        <v>4384</v>
+        <v>4372</v>
       </c>
       <c r="V44">
         <v>484646</v>
       </c>
       <c r="W44">
-        <v>2147673</v>
+        <v>2149716</v>
       </c>
       <c r="X44">
-        <v>2151562</v>
+        <v>2150199</v>
       </c>
       <c r="Y44">
-        <v>-3889</v>
+        <v>-483</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -3902,10 +3905,10 @@
         <v>68</v>
       </c>
       <c r="B45">
-        <v>2279060</v>
+        <v>2324173</v>
       </c>
       <c r="C45">
-        <v>1054939</v>
+        <v>1074335</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3914,61 +3917,135 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>809144</v>
+        <v>819926</v>
       </c>
       <c r="G45">
-        <v>6439</v>
+        <v>6255</v>
       </c>
       <c r="H45">
-        <v>300822</v>
+        <v>312139</v>
       </c>
       <c r="I45">
-        <v>107716</v>
+        <v>111517</v>
       </c>
       <c r="J45">
-        <v>1798301</v>
+        <v>1804283</v>
       </c>
       <c r="K45">
-        <v>1099732</v>
+        <v>1103040</v>
       </c>
       <c r="L45">
-        <v>395531</v>
+        <v>387928</v>
       </c>
       <c r="M45">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N45">
-        <v>258460</v>
+        <v>266870</v>
       </c>
       <c r="O45">
-        <v>27728</v>
+        <v>28892</v>
       </c>
       <c r="P45">
-        <v>16535</v>
+        <v>17235</v>
       </c>
       <c r="Q45">
-        <v>480759</v>
+        <v>519890</v>
       </c>
       <c r="R45">
-        <v>99170</v>
+        <v>106861</v>
       </c>
       <c r="S45">
-        <v>2696</v>
+        <v>1202</v>
       </c>
       <c r="T45">
-        <v>98441</v>
+        <v>104672</v>
       </c>
       <c r="U45">
-        <v>3426</v>
+        <v>3390</v>
       </c>
       <c r="W45">
-        <v>2281757</v>
+        <v>2325375</v>
       </c>
       <c r="X45">
-        <v>1900167</v>
+        <v>1912345</v>
       </c>
       <c r="Y45">
-        <v>381589</v>
+        <v>413030</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46">
+        <v>2056989</v>
+      </c>
+      <c r="C46">
+        <v>739748</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>795986</v>
+      </c>
+      <c r="G46">
+        <v>6364</v>
+      </c>
+      <c r="H46">
+        <v>400930</v>
+      </c>
+      <c r="I46">
+        <v>113961</v>
+      </c>
+      <c r="J46">
+        <v>1988083</v>
+      </c>
+      <c r="K46">
+        <v>1165582</v>
+      </c>
+      <c r="L46">
+        <v>474178</v>
+      </c>
+      <c r="M46">
+        <v>382</v>
+      </c>
+      <c r="N46">
+        <v>311035</v>
+      </c>
+      <c r="O46">
+        <v>22373</v>
+      </c>
+      <c r="P46">
+        <v>14533</v>
+      </c>
+      <c r="Q46">
+        <v>68906</v>
+      </c>
+      <c r="R46">
+        <v>136842</v>
+      </c>
+      <c r="S46">
+        <v>1030</v>
+      </c>
+      <c r="T46">
+        <v>135172</v>
+      </c>
+      <c r="U46">
+        <v>2701</v>
+      </c>
+      <c r="W46">
+        <v>2058020</v>
+      </c>
+      <c r="X46">
+        <v>2125955</v>
+      </c>
+      <c r="Y46">
+        <v>-67936</v>
       </c>
     </row>
   </sheetData>
